--- a/data/trans_dic/P2B_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P2B_R-Habitat-trans_dic.xlsx
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.1868613455215012</v>
+        <v>0.1870189553691574</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.4899100690515003</v>
+        <v>0.4882729311225187</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.4430791852070189</v>
+        <v>0.4428912536505978</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.2030442167945478</v>
+        <v>0.1999045699120298</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.225596246372026</v>
+        <v>0.2234017797555684</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.5124489603337558</v>
+        <v>0.5087180419771162</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.4448565928254843</v>
+        <v>0.4439367926332302</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.2303674003928206</v>
+        <v>0.2299337786584813</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.2159873653444774</v>
+        <v>0.2148393286617109</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.5113645241811912</v>
+        <v>0.5132089448331978</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.4573010226375536</v>
+        <v>0.4563068609473517</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.2281806360536332</v>
+        <v>0.2278497809684281</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.258787805621306</v>
+        <v>0.2605082253217052</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.5729373933696403</v>
+        <v>0.5721123547286774</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.5343532292987747</v>
+        <v>0.5278267558833162</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.2832274603218958</v>
+        <v>0.2816953215688791</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.2950585131257571</v>
+        <v>0.2942257631050152</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.5938473026853874</v>
+        <v>0.5950501649103475</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.5288403946470269</v>
+        <v>0.5289050032972689</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.2892413688634189</v>
+        <v>0.2896508823767087</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.2671229965749126</v>
+        <v>0.2668515612520221</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.5713573430814007</v>
+        <v>0.5737255734562858</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.5160930995296992</v>
+        <v>0.5168938714643324</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.2751805274891367</v>
+        <v>0.2746935692950217</v>
       </c>
     </row>
     <row r="7">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.1964577646864151</v>
+        <v>0.197767158182006</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.5132645366825969</v>
+        <v>0.5138741260530085</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.395555661169773</v>
+        <v>0.4012524139337286</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.2449927277991724</v>
+        <v>0.2406055736890565</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.2283592195584876</v>
+        <v>0.2272110551189685</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.5312918003924918</v>
+        <v>0.5311057859919841</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.4579206741020262</v>
+        <v>0.460906687624755</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.3041873907417242</v>
+        <v>0.3043845517526751</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.22344739985701</v>
+        <v>0.223449962489789</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.5310993732461069</v>
+        <v>0.5330894327638975</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.4430494012644754</v>
+        <v>0.4416880315136631</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.2855713986958846</v>
+        <v>0.2874120255499306</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.260791262029543</v>
+        <v>0.2618773237653218</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.5833792783178171</v>
+        <v>0.5822122551936464</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.4695824264088626</v>
+        <v>0.4714215787402897</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.316047453013858</v>
+        <v>0.316060977108115</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.2894425490744488</v>
+        <v>0.2900964297733887</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.598553786053646</v>
+        <v>0.5968920486862251</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.5321080927077004</v>
+        <v>0.5297536245670137</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.3622637442828296</v>
+        <v>0.3605851007612244</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.2665017506589685</v>
+        <v>0.2659464278298765</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.5790712285791911</v>
+        <v>0.5831967372030973</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.4966162603649353</v>
+        <v>0.4932499578072116</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.331290455562322</v>
+        <v>0.333351978891698</v>
       </c>
     </row>
     <row r="10">
@@ -957,7 +957,7 @@
         <v>0.4096096911825221</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>0.2419550334386404</v>
+        <v>0.2419550334386405</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>0.2342789041809957</v>
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.1769148583133175</v>
+        <v>0.1777068980974358</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.5044380863755801</v>
+        <v>0.5064888695675884</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.2995176214477366</v>
+        <v>0.298359799568968</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.1857349642259769</v>
+        <v>0.1858867721132145</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.2229902251395724</v>
+        <v>0.2178262953429038</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.534434133927691</v>
+        <v>0.5375183533885945</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.3698371259832193</v>
+        <v>0.3687965844474016</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.210719534811471</v>
+        <v>0.2102020409246344</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.2084077086034331</v>
+        <v>0.2079096945669634</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.5380072991300794</v>
+        <v>0.5385740449541414</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.3478468166783513</v>
+        <v>0.3508620140689911</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.2102405497036084</v>
+        <v>0.2068968144318769</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.2482053976303369</v>
+        <v>0.248318475103499</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.5944176788600413</v>
+        <v>0.5931105132710099</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.383520902601386</v>
+        <v>0.3815885470805845</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.2613329512958933</v>
+        <v>0.260742124377897</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.2946048513019422</v>
+        <v>0.2939014227280449</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.6141854111939195</v>
+        <v>0.6184640998101206</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.4501823825323095</v>
+        <v>0.4500333631512929</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.2737243248033007</v>
+        <v>0.2755197937169746</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.2607140489692287</v>
+        <v>0.2642443867768485</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.5971327712804452</v>
+        <v>0.5960681959395963</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.4090001628603593</v>
+        <v>0.4092493716267018</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.2578538112638037</v>
+        <v>0.2584287587899361</v>
       </c>
     </row>
     <row r="13">
@@ -1105,7 +1105,7 @@
         <v>0.4438985309004842</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.2399025179648639</v>
+        <v>0.239902517964864</v>
       </c>
     </row>
     <row r="14">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.180986218307281</v>
+        <v>0.1847378127604944</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.412926331272668</v>
+        <v>0.4141886904498392</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.3663751041706023</v>
+        <v>0.3667173526081016</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.1825446139418189</v>
+        <v>0.1851268258838853</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.2432311187559521</v>
+        <v>0.2428099745557698</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.4496812309461299</v>
+        <v>0.4521156857111789</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.4425375104924338</v>
+        <v>0.4412288707836775</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.2340330883159296</v>
+        <v>0.2349114573310636</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.2235719443268041</v>
+        <v>0.2265932352834417</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.4427443845746566</v>
+        <v>0.4419216393645153</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.4198082546913917</v>
+        <v>0.4182880909960886</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.2184156401264933</v>
+        <v>0.2204094154680227</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.2464691518888209</v>
+        <v>0.24570449977915</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.484282773098801</v>
+        <v>0.489185253555033</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.4418832955923194</v>
+        <v>0.440771371779939</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.2491325011779631</v>
+        <v>0.2502924444074555</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.3023838205885986</v>
+        <v>0.3065299003423811</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.5164605045695185</v>
+        <v>0.5186087519829758</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.5153653610895794</v>
+        <v>0.5095251518664377</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.2870871423309361</v>
+        <v>0.2888474694869116</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.2688691337084057</v>
+        <v>0.2694031552511941</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.4942696347400727</v>
+        <v>0.4932699532688375</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.4700883100729932</v>
+        <v>0.4693831944087751</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.261012021289645</v>
+        <v>0.2602643375338733</v>
       </c>
     </row>
     <row r="16">
@@ -1229,7 +1229,7 @@
         <v>0.4696106301764345</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>0.2771375617462544</v>
+        <v>0.2771375617462545</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>0.2417807702481004</v>
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.1997265867019365</v>
+        <v>0.2019323028156871</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.4989851814448812</v>
+        <v>0.4983786039270684</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.3965206009731178</v>
+        <v>0.396372153522688</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.222466979654051</v>
+        <v>0.2222240515644234</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.2457077454174861</v>
+        <v>0.2455391409605985</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.5231092060415907</v>
+        <v>0.5240740591191799</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.4512429756476242</v>
+        <v>0.4513987966123028</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.2626049487889739</v>
+        <v>0.2638142499921167</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.2306955416027019</v>
+        <v>0.2293111814613061</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.5175990084206729</v>
+        <v>0.516224134487397</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.4309801130634306</v>
+        <v>0.4304120787649726</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.2487975944949813</v>
+        <v>0.2489219292520159</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.2341677167569262</v>
+        <v>0.2351793067866018</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.5392929243097035</v>
+        <v>0.5390079386155443</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.4351685190967765</v>
+        <v>0.4364371326200961</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.2594086884785102</v>
+        <v>0.26001601262024</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.2798482340344395</v>
+        <v>0.2779402567556291</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.5594742252723014</v>
+        <v>0.5612543826635999</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.490859454173261</v>
+        <v>0.4881531329654066</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.2919633462612546</v>
+        <v>0.2913554922982814</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.2533832606091192</v>
+        <v>0.2541389126447806</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.5438231341614346</v>
+        <v>0.543496024112343</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.4592833350363972</v>
+        <v>0.4590778367979052</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.2715281060126578</v>
+        <v>0.2728079837764327</v>
       </c>
     </row>
     <row r="19">
@@ -1600,40 +1600,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>99102</v>
+        <v>99186</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>288400</v>
+        <v>287437</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>224356</v>
+        <v>224261</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>93204</v>
+        <v>91762</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>132552</v>
+        <v>131263</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>316151</v>
+        <v>313850</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>248655</v>
+        <v>248141</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>131434</v>
+        <v>131186</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>241456</v>
+        <v>240172</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>616512</v>
+        <v>618736</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>487169</v>
+        <v>486110</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>234928</v>
+        <v>234587</v>
       </c>
     </row>
     <row r="7">
@@ -1644,40 +1644,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>137249</v>
+        <v>138161</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>337277</v>
+        <v>336791</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>270573</v>
+        <v>267269</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>130010</v>
+        <v>129307</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>173366</v>
+        <v>172876</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>366369</v>
+        <v>367111</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>295599</v>
+        <v>295635</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>165024</v>
+        <v>165257</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>298621</v>
+        <v>298318</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>688841</v>
+        <v>691696</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>549801</v>
+        <v>550654</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>283318</v>
+        <v>282816</v>
       </c>
     </row>
     <row r="8">
@@ -1780,40 +1780,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>146877</v>
+        <v>147856</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>422056</v>
+        <v>422558</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>301169</v>
+        <v>305507</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>172468</v>
+        <v>169379</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>193329</v>
+        <v>192357</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>488303</v>
+        <v>488132</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>412364</v>
+        <v>415052</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>255084</v>
+        <v>255249</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>356225</v>
+        <v>356230</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>924848</v>
+        <v>928314</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>736302</v>
+        <v>734040</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>440507</v>
+        <v>443346</v>
       </c>
     </row>
     <row r="11">
@@ -1824,40 +1824,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>194974</v>
+        <v>195786</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>479712</v>
+        <v>478752</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>357532</v>
+        <v>358932</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>222488</v>
+        <v>222497</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>245042</v>
+        <v>245596</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>550123</v>
+        <v>548596</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>479170</v>
+        <v>477050</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>303785</v>
+        <v>302378</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>424864</v>
+        <v>423978</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>1008386</v>
+        <v>1015570</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>825325</v>
+        <v>819730</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>511030</v>
+        <v>514210</v>
       </c>
     </row>
     <row r="12">
@@ -1960,40 +1960,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>90904</v>
+        <v>91311</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>297040</v>
+        <v>298247</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>163669</v>
+        <v>163036</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>103606</v>
+        <v>103691</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>129967</v>
+        <v>126957</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>367827</v>
+        <v>369950</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>236679</v>
+        <v>236014</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>135752</v>
+        <v>135419</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>228554</v>
+        <v>228007</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>687093</v>
+        <v>687817</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>412685</v>
+        <v>416262</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>252719</v>
+        <v>248700</v>
       </c>
     </row>
     <row r="15">
@@ -2004,40 +2004,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>127536</v>
+        <v>127594</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>350025</v>
+        <v>349255</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>209572</v>
+        <v>208516</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>145776</v>
+        <v>145447</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>171706</v>
+        <v>171296</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>422716</v>
+        <v>425661</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>288097</v>
+        <v>288002</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>176342</v>
+        <v>177498</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>285916</v>
+        <v>289788</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>762603</v>
+        <v>761243</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>485237</v>
+        <v>485533</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>309953</v>
+        <v>310644</v>
       </c>
     </row>
     <row r="16">
@@ -2140,40 +2140,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>121745</v>
+        <v>124269</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>309030</v>
+        <v>309975</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>250898</v>
+        <v>251132</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>119498</v>
+        <v>121188</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>208317</v>
+        <v>207956</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>413391</v>
+        <v>415629</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>377793</v>
+        <v>376676</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>193781</v>
+        <v>194508</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>341871</v>
+        <v>346491</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>738359</v>
+        <v>736987</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>645878</v>
+        <v>643540</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>323829</v>
+        <v>326785</v>
       </c>
     </row>
     <row r="19">
@@ -2184,40 +2184,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>165794</v>
+        <v>165279</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>362433</v>
+        <v>366102</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>302607</v>
+        <v>301845</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>163088</v>
+        <v>163847</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>258978</v>
+        <v>262529</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>474781</v>
+        <v>476755</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>439966</v>
+        <v>434980</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>237710</v>
+        <v>239167</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>411136</v>
+        <v>411952</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>824288</v>
+        <v>822620</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>723235</v>
+        <v>722150</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>386984</v>
+        <v>385875</v>
       </c>
     </row>
     <row r="20">
@@ -2320,40 +2320,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>492223</v>
+        <v>497659</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>1371322</v>
+        <v>1369655</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>990902</v>
+        <v>990531</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>528457</v>
+        <v>527880</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>706030</v>
+        <v>705545</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>1644436</v>
+        <v>1647469</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>1332576</v>
+        <v>1333036</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>756657</v>
+        <v>760142</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>1231438</v>
+        <v>1224048</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>3049591</v>
+        <v>3041491</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>2349754</v>
+        <v>2346657</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>1307877</v>
+        <v>1308531</v>
       </c>
     </row>
     <row r="23">
@@ -2364,40 +2364,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>577102</v>
+        <v>579595</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>1482097</v>
+        <v>1481313</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>1087483</v>
+        <v>1090653</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>616210</v>
+        <v>617652</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>804131</v>
+        <v>798648</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>1758753</v>
+        <v>1764349</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>1449568</v>
+        <v>1441576</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>841249</v>
+        <v>839498</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>1352544</v>
+        <v>1356577</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>3204099</v>
+        <v>3202172</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>2504066</v>
+        <v>2502946</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>1427367</v>
+        <v>1434095</v>
       </c>
     </row>
     <row r="24">
